--- a/result/with_base/13/arousal/s13_0.xlsx
+++ b/result/with_base/13/arousal/s13_0.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.9386160671710968</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8774999976158142</v>
+        <v>0.8314732015132904</v>
       </c>
       <c r="C2" t="n">
-        <v>41690.91796875</v>
+        <v>11270.91455078125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8457954580133612</v>
+        <v>0.8614101900773889</v>
       </c>
       <c r="E2" t="n">
-        <v>41690.03977272727</v>
+        <v>11269.00545726103</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8824999928474426</v>
+        <v>0.8577008843421936</v>
       </c>
       <c r="C3" t="n">
-        <v>40900.234375</v>
+        <v>10954.3115234375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8956818201325156</v>
+        <v>0.8911502115866717</v>
       </c>
       <c r="E3" t="n">
-        <v>40899.44495738636</v>
+        <v>10952.64654181985</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8924999833106995</v>
+        <v>0.8482142984867096</v>
       </c>
       <c r="C4" t="n">
-        <v>40122.412109375</v>
+        <v>10647.19873046875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9031818075613542</v>
+        <v>0.879201682174907</v>
       </c>
       <c r="E4" t="n">
-        <v>40120.63529829546</v>
+        <v>10644.89906939338</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.8610491156578064</v>
       </c>
       <c r="C5" t="n">
-        <v>39348.283203125</v>
+        <v>10344.23583984375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9288636391813104</v>
+        <v>0.8988314060603871</v>
       </c>
       <c r="E5" t="n">
-        <v>39346.92897727273</v>
+        <v>10342.19496783088</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.8521205484867096</v>
       </c>
       <c r="C6" t="n">
-        <v>38589.025390625</v>
+        <v>10050.86669921875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9335227337750521</v>
+        <v>0.8965992647058824</v>
       </c>
       <c r="E6" t="n">
-        <v>38587.61470170454</v>
+        <v>10048.8310546875</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.8660714328289032</v>
       </c>
       <c r="C7" t="n">
-        <v>37840.5703125</v>
+        <v>9763.54296875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9453409043225375</v>
+        <v>0.9005383393343758</v>
       </c>
       <c r="E7" t="n">
-        <v>37839.59197443182</v>
+        <v>9761.822035845587</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.9084821343421936</v>
       </c>
       <c r="C8" t="n">
-        <v>37106.703125</v>
+        <v>9483.013671875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9494318257678639</v>
+        <v>0.9470850825309753</v>
       </c>
       <c r="E8" t="n">
-        <v>37105.53267045454</v>
+        <v>9481.56973805147</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C9" t="n">
-        <v>36384.73828125</v>
+        <v>9210.3828125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9540909095243975</v>
+        <v>0.948923317825093</v>
       </c>
       <c r="E9" t="n">
-        <v>36383.60830965909</v>
+        <v>9209.227194393383</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9040178656578064</v>
       </c>
       <c r="C10" t="n">
-        <v>35676.29296875</v>
+        <v>8945.46826171875</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9510227225043557</v>
+        <v>0.940848213784835</v>
       </c>
       <c r="E10" t="n">
-        <v>35675.21377840909</v>
+        <v>8944.141314338236</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C11" t="n">
-        <v>34979.75</v>
+        <v>8686.8662109375</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9786363731731068</v>
+        <v>0.9484637590015635</v>
       </c>
       <c r="E11" t="n">
-        <v>34978.42684659091</v>
+        <v>8685.547736672794</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C12" t="n">
-        <v>34297.31640625</v>
+        <v>8434.82275390625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9584090872244402</v>
+        <v>0.9606092431965996</v>
       </c>
       <c r="E12" t="n">
-        <v>34295.70632102273</v>
+        <v>8433.641486672794</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9525000154972076</v>
+        <v>0.93359375</v>
       </c>
       <c r="C13" t="n">
-        <v>33626.19140625</v>
+        <v>8189.44140625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.96318180994554</v>
+        <v>0.9699317216873169</v>
       </c>
       <c r="E13" t="n">
-        <v>33624.63991477273</v>
+        <v>8188.391544117647</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.92578125</v>
       </c>
       <c r="C14" t="n">
-        <v>32967.3203125</v>
+        <v>7950.71044921875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9802272861654108</v>
+        <v>0.9735425430185655</v>
       </c>
       <c r="E14" t="n">
-        <v>32965.88245738636</v>
+        <v>7949.645795036765</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9157366156578064</v>
       </c>
       <c r="C15" t="n">
-        <v>32320.8818359375</v>
+        <v>7718.5126953125</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9669318144971674</v>
+        <v>0.9639574569814345</v>
       </c>
       <c r="E15" t="n">
-        <v>32319.95774147727</v>
+        <v>7717.43994140625</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C16" t="n">
-        <v>31686.724609375</v>
+        <v>7492.18896484375</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9805681868032976</v>
+        <v>0.9739364490789526</v>
       </c>
       <c r="E16" t="n">
-        <v>31685.400390625</v>
+        <v>7491.272518382353</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9375</v>
       </c>
       <c r="C17" t="n">
-        <v>31064.0966796875</v>
+        <v>7271.968505859375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9846591028300199</v>
+        <v>0.9833902295897988</v>
       </c>
       <c r="E17" t="n">
-        <v>31062.81853693182</v>
+        <v>7271.195571001838</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9162946343421936</v>
       </c>
       <c r="C18" t="n">
-        <v>30453.3466796875</v>
+        <v>7058.381103515625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9852272813970392</v>
+        <v>0.9641544117647058</v>
       </c>
       <c r="E18" t="n">
-        <v>30451.96608664773</v>
+        <v>7057.351361443015</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C19" t="n">
-        <v>29854.31640625</v>
+        <v>6849.62744140625</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9859090989286249</v>
+        <v>0.9792542001780342</v>
       </c>
       <c r="E19" t="n">
-        <v>29852.67507102273</v>
+        <v>6848.862505744485</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9079241156578064</v>
       </c>
       <c r="C20" t="n">
-        <v>29266.310546875</v>
+        <v>6647.588134765625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9786363840103149</v>
+        <v>0.9472820373142466</v>
       </c>
       <c r="E20" t="n">
-        <v>29264.55308948864</v>
+        <v>6646.449075137868</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9034598171710968</v>
       </c>
       <c r="C21" t="n">
-        <v>28688.765625</v>
+        <v>6450.230224609375</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9801136472008445</v>
+        <v>0.9545693292337305</v>
       </c>
       <c r="E21" t="n">
-        <v>28687.36789772727</v>
+        <v>6449.203555836397</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9375</v>
       </c>
       <c r="C22" t="n">
-        <v>28122.4423828125</v>
+        <v>6257.884765625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9821591052142057</v>
+        <v>0.9839154411764706</v>
       </c>
       <c r="E22" t="n">
-        <v>28120.93785511364</v>
+        <v>6257.23681640625</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C23" t="n">
-        <v>27566.0869140625</v>
+        <v>6071.307373046875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9917045506564054</v>
+        <v>0.9861475825309753</v>
       </c>
       <c r="E23" t="n">
-        <v>27565.07084517046</v>
+        <v>6070.660615808823</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9525000154972076</v>
+        <v>0.93359375</v>
       </c>
       <c r="C24" t="n">
-        <v>27020.7890625</v>
+        <v>5889.883056640625</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9880681904879484</v>
+        <v>0.9813550430185655</v>
       </c>
       <c r="E24" t="n">
-        <v>27019.79705255682</v>
+        <v>5889.19091796875</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C25" t="n">
-        <v>26485.8427734375</v>
+        <v>5713.673095703125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9901136430827054</v>
+        <v>0.964417015804964</v>
       </c>
       <c r="E25" t="n">
-        <v>26484.69957386364</v>
+        <v>5712.836454503677</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9430803656578064</v>
       </c>
       <c r="C26" t="n">
-        <v>25960.7158203125</v>
+        <v>5541.43408203125</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9918181896209717</v>
+        <v>0.9707851900773889</v>
       </c>
       <c r="E26" t="n">
-        <v>25959.70596590909</v>
+        <v>5541.132381663603</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.921875</v>
       </c>
       <c r="C27" t="n">
-        <v>25445.8291015625</v>
+        <v>5374.946044921875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9797794117647058</v>
       </c>
       <c r="E27" t="n">
-        <v>25444.72709517046</v>
+        <v>5374.29696116728</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9525000154972076</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C28" t="n">
-        <v>24940.4990234375</v>
+        <v>5212.592041015625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9842045578089628</v>
+        <v>0.9773503156269298</v>
       </c>
       <c r="E28" t="n">
-        <v>24939.45472301136</v>
+        <v>5212.080767463235</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9162946343421936</v>
       </c>
       <c r="C29" t="n">
-        <v>24444.375</v>
+        <v>5055.014892578125</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9954545497894287</v>
+        <v>0.9701943292337305</v>
       </c>
       <c r="E29" t="n">
-        <v>24443.58895596591</v>
+        <v>5054.38916015625</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.94140625</v>
       </c>
       <c r="C30" t="n">
-        <v>23957.9697265625</v>
+        <v>4901.439697265625</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9872636549613055</v>
       </c>
       <c r="E30" t="n">
-        <v>23957.20365767046</v>
+        <v>4900.970387178309</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9375</v>
       </c>
       <c r="C31" t="n">
-        <v>23481.091796875</v>
+        <v>4752.54150390625</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9821590997956016</v>
+        <v>0.976693802020129</v>
       </c>
       <c r="E31" t="n">
-        <v>23480.09002130682</v>
+        <v>4751.929630055147</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9162946343421936</v>
       </c>
       <c r="C32" t="n">
-        <v>23012.296875</v>
+        <v>4607.640625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9696034648839165</v>
       </c>
       <c r="E32" t="n">
-        <v>23011.75337357954</v>
+        <v>4606.991440716912</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9302455484867096</v>
       </c>
       <c r="C33" t="n">
-        <v>22553.1044921875</v>
+        <v>4466.544189453125</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9930681857195768</v>
+        <v>0.9837841391563416</v>
       </c>
       <c r="E33" t="n">
-        <v>22552.43714488636</v>
+        <v>4466.021915211397</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.8995535671710968</v>
       </c>
       <c r="C34" t="n">
-        <v>22102.2158203125</v>
+        <v>4329.685302734375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9657956922755522</v>
       </c>
       <c r="E34" t="n">
-        <v>22101.73384232954</v>
+        <v>4329.122759650735</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9213169515132904</v>
       </c>
       <c r="C35" t="n">
-        <v>21660.8349609375</v>
+        <v>4196.58154296875</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9861363714391534</v>
+        <v>0.9724264705882353</v>
       </c>
       <c r="E35" t="n">
-        <v>21659.72354403409</v>
+        <v>4196.034983915441</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C36" t="n">
-        <v>21226.3193359375</v>
+        <v>4066.998291015625</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9863445373142466</v>
       </c>
       <c r="E36" t="n">
-        <v>21225.78426846591</v>
+        <v>4066.584314682904</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9302455484867096</v>
       </c>
       <c r="C37" t="n">
-        <v>20801.3251953125</v>
+        <v>3941.278686523438</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9792045571587302</v>
+        <v>0.9828650215092827</v>
       </c>
       <c r="E37" t="n">
-        <v>20800.35440340909</v>
+        <v>3940.881979549632</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9034598171710968</v>
       </c>
       <c r="C38" t="n">
-        <v>20383.267578125</v>
+        <v>3819.4599609375</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9930681857195768</v>
+        <v>0.9518119762925541</v>
       </c>
       <c r="E38" t="n">
-        <v>20382.72922585227</v>
+        <v>3818.86030847886</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.92578125</v>
       </c>
       <c r="C39" t="n">
-        <v>19974.1376953125</v>
+        <v>3700.3818359375</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9926136406985197</v>
+        <v>0.9796481097445768</v>
       </c>
       <c r="E39" t="n">
-        <v>19973.18998579546</v>
+        <v>3700.000359030331</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9296875</v>
       </c>
       <c r="C40" t="n">
-        <v>19572.173828125</v>
+        <v>3584.951782226562</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9907954606142911</v>
+        <v>0.9833902295897988</v>
       </c>
       <c r="E40" t="n">
-        <v>19571.39399857954</v>
+        <v>3584.645105698529</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9469866156578064</v>
       </c>
       <c r="C41" t="n">
-        <v>19178.009765625</v>
+        <v>3472.806030273438</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9945454597473145</v>
+        <v>0.9860819332739886</v>
       </c>
       <c r="E41" t="n">
-        <v>19177.17134232954</v>
+        <v>3472.560819738052</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9084821343421936</v>
       </c>
       <c r="C42" t="n">
-        <v>18790.9345703125</v>
+        <v>3364.332885742188</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9430147058823529</v>
       </c>
       <c r="E42" t="n">
-        <v>18790.42329545454</v>
+        <v>3363.878690831802</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9302455484867096</v>
       </c>
       <c r="C43" t="n">
-        <v>18411.693359375</v>
+        <v>3258.24365234375</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9782694332739886</v>
       </c>
       <c r="E43" t="n">
-        <v>18411.03107244318</v>
+        <v>3257.95556640625</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9045758843421936</v>
       </c>
       <c r="C44" t="n">
-        <v>18039.35546875</v>
+        <v>3155.895751953125</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9970454573631287</v>
+        <v>0.9401260509210474</v>
       </c>
       <c r="E44" t="n">
-        <v>18038.78497869318</v>
+        <v>3155.454891429228</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9347098171710968</v>
       </c>
       <c r="C45" t="n">
-        <v>17674.482421875</v>
+        <v>3055.698120117188</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9869318279353055</v>
+        <v>0.9847032568034004</v>
       </c>
       <c r="E45" t="n">
-        <v>17673.69833096591</v>
+        <v>3055.4306640625</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C46" t="n">
-        <v>17316.177734375</v>
+        <v>2958.857543945312</v>
       </c>
       <c r="D46" t="n">
-        <v>0.989545464515686</v>
+        <v>0.9772846628637875</v>
       </c>
       <c r="E46" t="n">
-        <v>17315.48011363636</v>
+        <v>2958.564596737132</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9296875</v>
       </c>
       <c r="C47" t="n">
-        <v>16964.8115234375</v>
+        <v>2864.785766601562</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9918181896209717</v>
+        <v>0.9772846628637875</v>
       </c>
       <c r="E47" t="n">
-        <v>16964.08611505682</v>
+        <v>2864.426843979779</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C48" t="n">
-        <v>16619.9677734375</v>
+        <v>2773.261840820312</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9904545545578003</v>
+        <v>0.9797137590015635</v>
       </c>
       <c r="E48" t="n">
-        <v>16619.38742897727</v>
+        <v>2773.003604664522</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9123883843421936</v>
       </c>
       <c r="C49" t="n">
-        <v>16281.9326171875</v>
+        <v>2684.731567382812</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9461003156269298</v>
       </c>
       <c r="E49" t="n">
-        <v>16281.19655539773</v>
+        <v>2684.377269071691</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9386160671710968</v>
       </c>
       <c r="C50" t="n">
-        <v>15950.08154296875</v>
+        <v>2598.254028320312</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9764968472368577</v>
       </c>
       <c r="E50" t="n">
-        <v>15949.47274502841</v>
+        <v>2598.057818244485</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,872 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9386160671710968</v>
       </c>
       <c r="C51" t="n">
-        <v>15624.4638671875</v>
+        <v>2514.6015625</v>
       </c>
       <c r="D51" t="n">
-        <v>0.993977275761691</v>
+        <v>0.9730173314318937</v>
       </c>
       <c r="E51" t="n">
-        <v>15624.07572798295</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15305.25244140625</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15304.85635653409</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C53" t="n">
-        <v>14992.36181640625</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9944318207827482</v>
-      </c>
-      <c r="E53" t="n">
-        <v>14991.74387428977</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14685.00732421875</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14684.56276633523</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9575000107288361</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14383.7568359375</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14383.26997514205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9575000107288361</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14088.26025390625</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9921590956774625</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14087.73366477273</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9575000107288361</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13798.38330078125</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9945454597473145</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13797.82102272727</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13513.83935546875</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13513.46715198864</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13234.94677734375</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13234.55717329545</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C60" t="n">
-        <v>12961.4609375</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9929545521736145</v>
-      </c>
-      <c r="E60" t="n">
-        <v>12961.00763494318</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12693.01708984375</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12692.68439275568</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9575000107288361</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12430.17236328125</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9857954653826627</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12429.58478338068</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12171.77001953125</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12171.41930042614</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11918.8916015625</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9906818270683289</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11918.32626065341</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11670.31787109375</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11670.02139559659</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11426.9794921875</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.993977275761691</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11426.56924715909</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11188.00439453125</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11187.76136363636</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C68" t="n">
-        <v>10954.0322265625</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9921590956774625</v>
-      </c>
-      <c r="E68" t="n">
-        <v>10953.60484730114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10724.3642578125</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9948863658038053</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10723.94415838068</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10498.97802734375</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9961363673210144</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10498.73330965909</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10278.11181640625</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9956818222999573</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10277.87144886364</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9575000107288361</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10061.6455078125</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.991136372089386</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10061.30868252841</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9849.091796875</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9848.904119318182</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9640.91015625</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9640.670454545454</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9436.67626953125</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9436.476296164772</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9236.47705078125</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.993977275761691</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9236.269264914772</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9040.1201171875</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9039.950727982954</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9550000131130219</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8847.70751953125</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9876136454668912</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8847.486328125</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9575000107288361</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8658.974609375</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9944318207827482</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8658.757634943182</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8473.83935546875</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9931818246841431</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8473.747869318182</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8292.6279296875</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.983522734858773</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8292.388849431818</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9876259727005995</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9876259727005995</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7948717948717948</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.004975124378109453</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9876259727005995</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7948717948717948</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.004975124378109453</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9876259727005995</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.01492537313432836</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9876259727005995</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.01492537313432836</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9876259727005995</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.03482587064676617</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9876259727005995</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.03482587064676617</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9876259727005995</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9487179487179487</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1144278606965174</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9876259727005995</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9487179487179487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1144278606965174</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9876259727005995</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9743589743589743</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.2786069651741294</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9876259727005995</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9743589743589743</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.2786069651741294</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9876259727005995</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9876259727005995</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9691287153973722</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9691287153973722</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8855721393034826</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9691287153973722</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9303482587064676</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9691287153973722</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9402985074626866</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9691287153973722</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9552238805970149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9691287153973722</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9651741293532339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9691287153973722</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9651741293532339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9691287153973722</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9850746268656716</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9691287153973722</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9850746268656716</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9691287153973722</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9950248756218906</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.2051282051282051</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9691287153973722</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9950248756218906</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.2051282051282051</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9691287153973722</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9691287153973722</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
+        <v>2514.402013442096</v>
       </c>
     </row>
   </sheetData>
